--- a/Data/Purchases.xlsx
+++ b/Data/Purchases.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Projects\AI\Grad Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545525A2-FBCE-4283-B7DE-18A4E1B76024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A1D1DC-E29B-42AD-A081-58F1BD0B752F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="2292" windowWidth="9324" windowHeight="8796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="2016" windowWidth="16680" windowHeight="8796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Orders Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Order Items" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,27 +26,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>User ID</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>Price</t>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Order Date</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Payment Method</t>
+  </si>
+  <si>
+    <t>Shipping Address</t>
+  </si>
+  <si>
+    <t>Delivery Date</t>
+  </si>
+  <si>
+    <t>Tracking Number</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Shipped</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>123 Main St, Cairo</t>
+  </si>
+  <si>
+    <t>ABC123XYZ</t>
+  </si>
+  <si>
+    <t>Urgent delivery</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>PayPal</t>
+  </si>
+  <si>
+    <t>45 Elm St, Giza</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Gift wrap requested</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>Cash on Delivery</t>
+  </si>
+  <si>
+    <t>89 Nile Ave, Alexandria</t>
+  </si>
+  <si>
+    <t>ZYX987ABC</t>
+  </si>
+  <si>
+    <t>Leave at the door</t>
+  </si>
+  <si>
+    <t>Order Item ID</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,8 +155,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,48 +439,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45698.604166666664</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45703.5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45699.40625</v>
+      </c>
+      <c r="D3">
+        <v>320</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45700.763888888891</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45702.666666666664</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6554DD-854E-4AD7-B521-1B3A1F0959E7}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>250</v>
+      </c>
+      <c r="F2" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B3">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>125</v>
+      </c>
+      <c r="F3" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>300</v>
+      <c r="E4" s="2">
+        <v>320</v>
+      </c>
+      <c r="F4" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>150</v>
+      </c>
+      <c r="F5" s="2">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Purchases.xlsx
+++ b/Data/Purchases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Projects\AI\Grad Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A1D1DC-E29B-42AD-A081-58F1BD0B752F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44C38E7-53D8-4715-8D61-241F59160BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2016" windowWidth="16680" windowHeight="8796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="2016" windowWidth="16680" windowHeight="8796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders Table" sheetId="1" r:id="rId1"/>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6554DD-854E-4AD7-B521-1B3A1F0959E7}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,24 +680,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>103</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>150</v>
-      </c>
-      <c r="F5" s="2">
-        <v>150</v>
-      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Purchases.xlsx
+++ b/Data/Purchases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Projects\AI\Grad Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44C38E7-53D8-4715-8D61-241F59160BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C920DF-419E-48C6-A080-05AAA025AB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2016" windowWidth="16680" windowHeight="8796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3912" yWindow="1116" windowWidth="11868" windowHeight="8796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders Table" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>User ID</t>
   </si>
@@ -116,23 +116,49 @@
   </si>
   <si>
     <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Monday, February 10, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, February 15, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, February 11, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, February 12, 2025</t>
+  </si>
+  <si>
+    <t>Friday, February 14, 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,10 +181,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,23 +468,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="26.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
     <col min="8" max="8" width="23.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -486,16 +516,19 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>101</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>45698.604166666664</v>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D2">
         <v>500</v>
@@ -509,8 +542,8 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1">
-        <v>45703.5</v>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -518,16 +551,19 @@
       <c r="J2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="4">
+        <v>45698.4375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>45699.40625</v>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D3">
         <v>320</v>
@@ -550,16 +586,19 @@
       <c r="J3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="5">
+        <v>45699.614583333336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>45700.763888888891</v>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -573,14 +612,17 @@
       <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1">
-        <v>45702.666666666664</v>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
+      </c>
+      <c r="K4" s="5">
+        <v>45700.385416666664</v>
       </c>
     </row>
   </sheetData>
@@ -593,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6554DD-854E-4AD7-B521-1B3A1F0959E7}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
